--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2174707.449862135</v>
+        <v>-2179995.565356907</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14567172.06056184</v>
+        <v>14565402.12239059</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>370.3468062712285</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>268.8785876329359</v>
       </c>
     </row>
     <row r="3">
@@ -744,16 +744,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>59.52600848857721</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>2.236264487173143</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>141.4770982789252</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>159.9167990085617</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>40.87923442413375</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -908,10 +908,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>361.1395992376854</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.5248520122631</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>83.48565392303547</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>25.3312303273694</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>217.3664106129375</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>148.2865882684924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>6.940227323132183</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>165.6158245190445</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>167.944521501048</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>194.6536556543433</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
@@ -1430,7 +1430,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>20.50631558354108</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>12.969322759773</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>270.8011867939835</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>191.7797789436878</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
-        <v>81.8522121117031</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>153.9382576812541</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006889</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697389</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2567,13 +2567,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641433</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
         <v>137.7482445205302</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211824</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548577</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.9624712641433</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404343</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954308</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380444</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943229</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>862.6879508334395</v>
+        <v>1403.073059142962</v>
       </c>
       <c r="C2" t="n">
-        <v>469.51244933637</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="D2" t="n">
-        <v>469.51244933637</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E2" t="n">
-        <v>469.51244933637</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407457</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="M2" t="n">
-        <v>1434.057092150839</v>
+        <v>936.6744981739558</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.8683757883</v>
+        <v>1450.277176783644</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V2" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.270379647087</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="X2" t="n">
-        <v>1263.182696544836</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.182696544836</v>
+        <v>1803.567804854359</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>215.322306861295</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686802</v>
+        <v>642.3356118811474</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.7502985359338</v>
+        <v>1462.442853735775</v>
       </c>
       <c r="C4" t="n">
-        <v>487.7502985359338</v>
+        <v>1462.442853735775</v>
       </c>
       <c r="D4" t="n">
-        <v>487.7502985359338</v>
+        <v>1306.80974063829</v>
       </c>
       <c r="E4" t="n">
-        <v>487.7502985359338</v>
+        <v>1306.80974063829</v>
       </c>
       <c r="F4" t="n">
-        <v>344.8441386582316</v>
+        <v>1306.80974063829</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>1306.80974063829</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>1306.80974063829</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>1255.55035638531</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.67799625911</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>1605.969574597374</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628583</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670291</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>1809.182992637745</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>1809.182992637745</v>
       </c>
       <c r="X4" t="n">
-        <v>710.8623597192905</v>
+        <v>1647.650872427077</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.7502985359338</v>
+        <v>1647.650872427077</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1523.836848515744</v>
+        <v>490.2129174248551</v>
       </c>
       <c r="C5" t="n">
-        <v>1130.661347018675</v>
+        <v>448.9207614408816</v>
       </c>
       <c r="D5" t="n">
-        <v>745.2202182353426</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="E5" t="n">
-        <v>745.2202182353426</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F5" t="n">
-        <v>732.3661838057244</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1552.058346020845</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059667</v>
+        <v>2065.661024630533</v>
       </c>
       <c r="O5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.289453582688</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U5" t="n">
-        <v>1913.289453582688</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="V5" t="n">
-        <v>1913.289453582688</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="W5" t="n">
-        <v>1913.289453582688</v>
+        <v>1276.156231571197</v>
       </c>
       <c r="X5" t="n">
-        <v>1523.836848515744</v>
+        <v>886.703626504254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1523.836848515744</v>
+        <v>490.2129174248551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>706.4151516456737</v>
+        <v>556.1927859813156</v>
       </c>
       <c r="C6" t="n">
-        <v>555.760921205766</v>
+        <v>405.5385555414078</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6719538272462</v>
+        <v>275.4495881628882</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>139.0030972737759</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H6" t="n">
-        <v>92.8829133828434</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="M6" t="n">
-        <v>959.915873575022</v>
+        <v>987.96005364798</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430371</v>
+        <v>1501.562732257668</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021352</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2066.536983279212</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1889.55317147812</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1679.490028156762</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1456.950026527829</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1226.832780661116</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.525703011128</v>
+        <v>887.3033373467697</v>
       </c>
       <c r="Y6" t="n">
-        <v>858.2114860866351</v>
+        <v>707.989120422277</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.7158738330174</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>224.7158738330174</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>69.08276073553216</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>69.08276073553216</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>69.08276073553216</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>876.2517857624357</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>590.8129940043366</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>324.8336488251608</v>
       </c>
       <c r="W7" t="n">
-        <v>458.7961960500343</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="X7" t="n">
-        <v>224.7158738330174</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.7158738330174</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>935.7499273842031</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="C8" t="n">
-        <v>935.7499273842031</v>
+        <v>1202.359123069618</v>
       </c>
       <c r="D8" t="n">
-        <v>935.7499273842031</v>
+        <v>816.9179942862861</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>414.3344694028306</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,52 +4802,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>179.1178642627589</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>1857.028140721749</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>1486.029105690037</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="X8" t="n">
-        <v>1486.029105690037</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1336.2446730956</v>
+        <v>1595.534624566688</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>374.4427628648862</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1331.423962334475</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1847.944244925457</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2253.565613641854</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.1512011330396</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="C10" t="n">
-        <v>202.9460831990289</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="X10" t="n">
-        <v>781.4712810076976</v>
+        <v>541.5286012068507</v>
       </c>
       <c r="Y10" t="n">
-        <v>558.3592198243409</v>
+        <v>541.5286012068507</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1229.733075037215</v>
+        <v>1388.790614793279</v>
       </c>
       <c r="C11" t="n">
-        <v>908.3538486863397</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="D11" t="n">
-        <v>908.3538486863397</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="E11" t="n">
-        <v>577.5665989490781</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F11" t="n">
-        <v>577.5665989490781</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527721</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5075,7 +5075,7 @@
         <v>2770.295603492179</v>
       </c>
       <c r="V11" t="n">
-        <v>2499.985069341892</v>
+        <v>2499.985069341891</v>
       </c>
       <c r="W11" t="n">
         <v>2200.782309456373</v>
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.0952099420617</v>
+        <v>403.8135591038543</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542447</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083496</v>
+        <v>305.4047163160374</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208437</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1365.71283314325</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1152.070316531345</v>
+        <v>936.0428256245447</v>
       </c>
       <c r="V13" t="n">
-        <v>1131.35686644696</v>
+        <v>741.8597555915628</v>
       </c>
       <c r="W13" t="n">
-        <v>919.822739524332</v>
+        <v>530.3256286689343</v>
       </c>
       <c r="X13" t="n">
-        <v>919.822739524332</v>
+        <v>517.2253026489617</v>
       </c>
       <c r="Y13" t="n">
-        <v>768.5069534871692</v>
+        <v>517.2253026489617</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1651.747936481893</v>
+        <v>1966.681876406338</v>
       </c>
       <c r="C14" t="n">
-        <v>1330.368710131017</v>
+        <v>1645.302650055463</v>
       </c>
       <c r="D14" t="n">
-        <v>1330.368710131017</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E14" t="n">
-        <v>999.5814603937556</v>
+        <v>1000.870546681063</v>
       </c>
       <c r="F14" t="n">
-        <v>654.4832970699272</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5309,19 +5309,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2921.999930786569</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2921.999930786569</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2622.79717090105</v>
+        <v>2806.753625320258</v>
       </c>
       <c r="X14" t="n">
-        <v>2305.140840980301</v>
+        <v>2489.097295399509</v>
       </c>
       <c r="Y14" t="n">
-        <v>1980.446407047096</v>
+        <v>2295.380346971541</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.0312489714509</v>
+        <v>569.5655503012282</v>
       </c>
       <c r="C16" t="n">
-        <v>410.622406183634</v>
+        <v>471.1567075134113</v>
       </c>
       <c r="D16" t="n">
-        <v>326.7855682323427</v>
+        <v>387.31986956212</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993093</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1210.219643566227</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>996.5771269543213</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245441</v>
+        <v>996.5771269543213</v>
       </c>
       <c r="W16" t="n">
-        <v>936.0428256245441</v>
+        <v>996.5771269543213</v>
       </c>
       <c r="X16" t="n">
-        <v>773.7587785537211</v>
+        <v>834.2930798834983</v>
       </c>
       <c r="Y16" t="n">
-        <v>622.4429925165583</v>
+        <v>682.9772938463356</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975451</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924214</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.46733722469</v>
@@ -5595,16 +5595,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1314.578167032715</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184684</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567324</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
         <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099319</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803437</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,19 +5829,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,49 +5911,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.53381142224</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184684</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567324</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879416</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975462</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803429</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6017,22 +6017,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291067</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>243.2367958390485</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>593.6560140511124</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.258445116189</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,52 +6206,52 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388008</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429869</v>
+        <v>700.0178648958359</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343937</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452356</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985346</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517123</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414154</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878063</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746016</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904101</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122474</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628626</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.44903272825</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102265</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286442</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988157</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6455,58 +6455,58 @@
         <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429869</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118091</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377455</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985356</v>
+        <v>504.3300981985345</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.373229741416</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878069</v>
+        <v>307.7550988878064</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796857</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.528880919201</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286451</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108101</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877772</v>
+        <v>2249.971860514189</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.3081217701</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1090.126239096134</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071541</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>225.416092717096</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082765</v>
+        <v>501.1958531658787</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465405</v>
+        <v>799.1395520791257</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103348</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503604</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7099,19 +7099,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599515</v>
@@ -7214,7 +7214,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7260,16 +7260,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296507</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
@@ -7403,13 +7403,13 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343043</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655135</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072216</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838002</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>548.7422328429437</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
-        <v>364.629083837681</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>210.8379091467824</v>
       </c>
       <c r="N3" t="n">
-        <v>89.07681405485191</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
-        <v>564.9482258454441</v>
+        <v>159.1611234709529</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>381.0543803848218</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>262.3625455988437</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>250.8160946708464</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,16 +8532,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>305.7735116400153</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.2031950097791</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9243,7 +9243,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,10 +9252,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>522.8795138138872</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>335.1420048916687</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680212</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>571.8744206036794</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>575.5973938481089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>157.4669643585029</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>143.2991599078016</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>171.734923749111</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>147.6918838403417</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>67.1516287681614</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362789</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214454</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>129.6677106501851</v>
       </c>
     </row>
     <row r="15">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.072699512954486</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.345291237462106</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1276901.133538946</v>
+        <v>1275998.812118305</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1276901.133538946</v>
+        <v>1275998.812118305</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>18033.21780933568</v>
+      </c>
+      <c r="C2" t="n">
         <v>18033.21780933569</v>
       </c>
-      <c r="C2" t="n">
-        <v>18033.21780933568</v>
-      </c>
       <c r="D2" t="n">
-        <v>18033.21780933568</v>
+        <v>18033.21780933569</v>
       </c>
       <c r="E2" t="n">
-        <v>15935.90234244006</v>
+        <v>15935.90234244007</v>
       </c>
       <c r="F2" t="n">
         <v>15935.90234244006</v>
       </c>
       <c r="G2" t="n">
-        <v>18033.21780933566</v>
+        <v>18033.21780933567</v>
       </c>
       <c r="H2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="I2" t="n">
-        <v>18033.21780933566</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="J2" t="n">
-        <v>18033.21780933565</v>
+        <v>18033.21780933563</v>
       </c>
       <c r="K2" t="n">
         <v>18033.21780933565</v>
       </c>
       <c r="L2" t="n">
-        <v>18033.21780933566</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="M2" t="n">
         <v>18033.21780933568</v>
       </c>
       <c r="N2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="O2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
       <c r="P2" t="n">
-        <v>18033.21780933567</v>
+        <v>18033.21780933568</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668203</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190948</v>
+        <v>205625.0607746777</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26430,7 +26430,7 @@
         <v>112797.3745002078</v>
       </c>
       <c r="G4" t="n">
-        <v>160556.2909917901</v>
+        <v>160556.29099179</v>
       </c>
       <c r="H4" t="n">
         <v>160556.29099179</v>
@@ -26442,10 +26442,10 @@
         <v>161306.7834561731</v>
       </c>
       <c r="K4" t="n">
-        <v>161306.7834561732</v>
+        <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551967</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-430671.2395416288</v>
+        <v>-426620.5675342142</v>
       </c>
       <c r="C6" t="n">
-        <v>-248466.2912497729</v>
+        <v>-252761.9105001592</v>
       </c>
       <c r="D6" t="n">
-        <v>-255058.3525894952</v>
+        <v>-262794.641812887</v>
       </c>
       <c r="E6" t="n">
-        <v>-262170.0533316528</v>
+        <v>-262379.7848783424</v>
       </c>
       <c r="F6" t="n">
-        <v>-150047.4918576083</v>
+        <v>-150257.2234042978</v>
       </c>
       <c r="G6" t="n">
-        <v>-248118.1680346561</v>
+        <v>-248118.1680346559</v>
       </c>
       <c r="H6" t="n">
         <v>-200692.842497974</v>
       </c>
       <c r="I6" t="n">
-        <v>-200692.8424979739</v>
+        <v>-200692.842497974</v>
       </c>
       <c r="J6" t="n">
-        <v>-413734.7600952595</v>
+        <v>-407218.4749406863</v>
       </c>
       <c r="K6" t="n">
         <v>-206932.610900757</v>
       </c>
       <c r="L6" t="n">
-        <v>-262115.1998353781</v>
+        <v>-266164.0370458504</v>
       </c>
       <c r="M6" t="n">
-        <v>-242893.671957597</v>
+        <v>-243945.3669687852</v>
       </c>
       <c r="N6" t="n">
         <v>-200692.842497974</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014442</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287431</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085254</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,7 +27388,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>15.21127274504522</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>123.647214355669</v>
       </c>
     </row>
     <row r="3">
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>75.55601749164393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>185.1777423863153</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>14.27557716023162</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>71.82271998628502</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>348.3645120579649</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>47.8915287191914</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.66263604343642</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>50.09571640609437</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27786,7 +27786,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>141.2402830341795</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>195.3590834723845</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.2392137201125</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>148.8124481160246</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>66.12369447580221</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>35.71049010668696</v>
+        <v>5.636002634528637</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,46 +28956,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>5.636002634527912</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155831</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>130.3599693155845</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>35.71049010668685</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431651</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901158</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431651</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431651</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431482</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431651</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431651</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>30.27223765901181</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566466</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683159852</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224712</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254077</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30171,13 +30171,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,10 +30402,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773342</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30639,19 +30639,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5.636002634529461</v>
+      </c>
+      <c r="N43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>35.71049010668767</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634528381</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>395.494063112452</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
-        <v>215.0652464135846</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>118.4507870974704</v>
       </c>
       <c r="N3" t="n">
-        <v>3.704701200685251</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
-        <v>415.3843884213476</v>
+        <v>9.597286046856526</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>295.6822675306551</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>169.6749867099548</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>133.1362567285003</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>216.176576306682</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.2150418538651</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35963,7 +35963,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>430.1919549249983</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>201.4959849287069</v>
+        <v>171.4214974565486</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>249.769892037502</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36279,19 +36279,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.29766032133789</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>220.7505244816456</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851016</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060962</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272226</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853757</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698323</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271068</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060962</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101033</v>
+        <v>581.7882983101042</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698323</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105758</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184964</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.1996343381862</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>107.2231205187093</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>76.79385455031216</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496196</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,13 +37467,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>486.5023077495127</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873214</v>
       </c>
       <c r="N43" t="n">
-        <v>220.7505244816465</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>485.5370469911907</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38181,7 +38181,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873203</v>
+        <v>316.4712935610703</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
